--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-pie-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-pie-chart.xlsx
@@ -97,12 +97,50 @@
   <c:date1904 val="0"/>
   <c:roundedCorners val="0"/>
   <c:lang val="zh-CN"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </a:bodyPr>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -111,9 +149,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="sngStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -129,7 +167,9 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -138,9 +178,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="sngStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -160,6 +200,48 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -175,9 +257,14 @@
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-pie-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-pie-chart.xlsx
@@ -200,6 +200,11 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
